--- a/biology/Botanique/Ixiolirion_tataricum/Ixiolirion_tataricum.xlsx
+++ b/biology/Botanique/Ixiolirion_tataricum/Ixiolirion_tataricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixiolirion tataricum est une espèce de la famille des Ixioliriaceae. Communément connu sous le nom de lys de Sibérie ou lavender mountain lily.
-C'est un géophyte bulbeux qui pousse principalement dans le biome tempéré. L'aire de répartition naturelle de cette espèce s'étend de l'est du centre de la Turquie au sud-ouest; en Sibérie et à l'ouest de l'Himalaya ainsi que dans la péninsule arabique[1],[2],[3].
-La couleur des fleurs va du bleu clair au violet foncé[4].
+C'est un géophyte bulbeux qui pousse principalement dans le biome tempéré. L'aire de répartition naturelle de cette espèce s'étend de l'est du centre de la Turquie au sud-ouest; en Sibérie et à l'ouest de l'Himalaya ainsi que dans la péninsule arabique.
+La couleur des fleurs va du bleu clair au violet foncé.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Gallerie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			In south Hebron
@@ -548,9 +562,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 janvier 2024)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 janvier 2024) :
 Ixiolirion tataricum var. album Ghahr., 1997
 Ixiolirion tataricum var. ixiolirioides (Regel) X.H.Qian
 Ixiolirion tataricum var. tataricum</t>
@@ -581,12 +597,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Ixiolirion tataricum (Pall.) Schult. &amp; Schult.f.[5].
-L'espèce a été initialement classée dans le genre Amaryllis sous le basionyme Amaryllis tatarica Pall.[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : lis de Sibérie[6].
-Ixiolirion tataricum a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Ixiolirion tataricum (Pall.) Schult. &amp; Schult.f..
+L'espèce a été initialement classée dans le genre Amaryllis sous le basionyme Amaryllis tatarica Pall..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : lis de Sibérie.
+Ixiolirion tataricum a pour synonymes :
 Amaryllis tatarica Pall.
 Ixiolirion pallasii Fisch. &amp; C.A.Mey.
 Ixiolirion pallasii Fisch. &amp; C.A.Mey. ex Ledeb.
